--- a/gante.xlsx
+++ b/gante.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hankins\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\github\FinTech-AI-Project-Group3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A347E368-D2E4-444B-84F3-86D7C5766B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194273E1-D967-4863-855E-C8DBAF2FF2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>登入/註冊系統</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型預測價格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>區塊鏈顯示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>報告練習</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PPT製作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRUD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,13 +46,57 @@
     <t>任務天數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>推薦系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬蟲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line Bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.偽造資料 2.寫程式 3.套linebot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.腳本 2.寫程式 3.美工 4.串接推薦系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如果爬不出來請偽造資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.功能串接 2.美工 3.CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區塊鏈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夢想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="185" formatCode="m&quot;/&quot;d"/>
+    <numFmt numFmtId="176" formatCode="m&quot;/&quot;d"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -86,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,9 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -175,16 +212,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>登入/註冊系統</c:v>
+                  <c:v>爬蟲</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>模型預測價格</c:v>
+                  <c:v>推薦系統</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CRUD</c:v>
+                  <c:v>前端</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>區塊鏈顯示</c:v>
+                  <c:v>Line Bot</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>PPT製作</c:v>
@@ -201,9 +238,6 @@
               <c:numCache>
                 <c:formatCode>m"/"d</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>44893</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>44895</c:v>
                 </c:pt>
@@ -304,9 +338,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1040,16 +1071,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>234461</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>11724</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>416169</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>187570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>339969</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>46893</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1340,46 +1371,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F4:I10"/>
+  <dimension ref="D4:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="2.125" customWidth="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="41.375" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
-    <row r="5" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>44893</v>
-      </c>
-      <c r="H5" s="1">
-        <v>44895</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>44895</v>
@@ -1391,9 +1425,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1">
         <v>44896</v>
@@ -1405,9 +1442,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1">
         <v>44899</v>
@@ -1419,9 +1459,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>44902</v>
@@ -1433,9 +1473,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>44909</v>
@@ -1447,7 +1487,24 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
